--- a/resources/fuzzy_rules/fuzzy_conf.xlsx
+++ b/resources/fuzzy_rules/fuzzy_conf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c5dd28f289d0b37/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elvir\PycharmProjects\bio_ml_project\resources\fuzzy_rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{82565F45-7851-4725-A48D-07663EDAB9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A03674D-C1E2-44A1-8751-49292174C00C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E31E32-8444-4B3E-8BDA-6F8EFCAFFE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{5BEE7FFB-1B51-4401-8431-8F6025B6A78E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5BEE7FFB-1B51-4401-8431-8F6025B6A78E}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Fuzzy value</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Fuzzy value label</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -480,149 +483,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDE8EE3-C449-4001-861B-70F8791A21CE}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.06640625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>0.15</v>
-      </c>
-      <c r="D2">
-        <v>0.3</v>
-      </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-      <c r="F2">
-        <v>0.7</v>
-      </c>
-      <c r="G2">
-        <v>0.85</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>-0.15</v>
-      </c>
-      <c r="J2">
-        <v>-0.3</v>
-      </c>
-      <c r="K2">
-        <v>-0.5</v>
-      </c>
-      <c r="L2">
-        <v>-0.7</v>
-      </c>
-      <c r="M2">
-        <v>-0.85</v>
-      </c>
-      <c r="N2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.7</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.85</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-0.15</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-0.3</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-0.5</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="L3" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-0.7</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="M3" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>-0.85</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="N3" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>